--- a/data/trans_camb/P16A_n_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A_n_R2-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.62486055832703</v>
+        <v>-0.8780885693770986</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.2545122301155112</v>
+        <v>-0.500769352463201</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.888186032120276</v>
+        <v>5.721191853929859</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.246684701745422</v>
+        <v>-4.638491976301605</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-7.208461389582557</v>
+        <v>-7.549315913736383</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.421775160273908</v>
+        <v>2.170251342295785</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.6592012548364331</v>
+        <v>-0.5851496867437787</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.294280484064305</v>
+        <v>-1.388014758558474</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.233062622332249</v>
+        <v>6.262252316303719</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.54889874965652</v>
+        <v>9.76122581150894</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.1611898050452</v>
+        <v>10.20343741519494</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.85436647035641</v>
+        <v>16.43368033677329</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.046824665160313</v>
+        <v>9.113150692159026</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.883938978113974</v>
+        <v>5.422379056131066</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>13.93061608000366</v>
+        <v>14.25163220371602</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.638676848574713</v>
+        <v>7.89591844538498</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.796897607661803</v>
+        <v>6.995736168659226</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>14.29554658837753</v>
+        <v>13.9638916934179</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.1455506605430507</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.5360289053886793</v>
+        <v>0.536028905388679</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.03864296316216058</v>
+        <v>-0.04745831745372933</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.02023493721753299</v>
+        <v>-0.04372632565612797</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.314353160928396</v>
+        <v>0.2950901322225938</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2079962162245391</v>
+        <v>-0.1910297929736665</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2845919910628571</v>
+        <v>-0.2934221736570831</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08708519854047551</v>
+        <v>0.07830425719318714</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.03656558478362535</v>
+        <v>-0.02693966785016895</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.06410561317143386</v>
+        <v>-0.06602128337660733</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2784105525599804</v>
+        <v>0.2923817265560869</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7299320567724432</v>
+        <v>0.6675950801346385</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.801991626997488</v>
+        <v>0.706957746590385</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.152534501718831</v>
+        <v>1.169299531524773</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.476404123321606</v>
+        <v>0.4564224973156633</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.300045115836249</v>
+        <v>0.2716173455016772</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7334349293977062</v>
+        <v>0.7540917481635141</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4383911831705682</v>
+        <v>0.4634066505827</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3947545655388814</v>
+        <v>0.4080004659876669</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.8477310674972641</v>
+        <v>0.8240895783132569</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>1.209197355500991</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>9.196546557777671</v>
+        <v>9.196546557777665</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>5.688017144807373</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.490313892941279</v>
+        <v>1.747371696079789</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.78470227476735</v>
+        <v>3.041777002805757</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8.156910788036035</v>
+        <v>7.993822196779661</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.176218115068451</v>
+        <v>-1.896837128117079</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.380668526743338</v>
+        <v>-5.412023376006482</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.976175435410337</v>
+        <v>3.441321538510576</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9976156429983911</v>
+        <v>1.354761530068218</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5308200448821724</v>
+        <v>0.6220075634841257</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>6.965287326756547</v>
+        <v>6.919539341188469</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.02891917927839</v>
+        <v>12.90596365425507</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.50727838468574</v>
+        <v>14.13571097140298</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18.69525685535429</v>
+        <v>18.44514797045587</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.55971684009853</v>
+        <v>11.84946316578841</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.274566426374084</v>
+        <v>7.644249172667091</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>15.01078995041941</v>
+        <v>15.40742687016009</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.935169165291789</v>
+        <v>10.43450921878618</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>8.924741731501321</v>
+        <v>9.715623596962082</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>14.42750109345724</v>
+        <v>15.17665521800715</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.612419710833542</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.9313915569141563</v>
+        <v>0.9313915569141559</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.2259088089413816</v>
@@ -974,7 +974,7 @@
         <v>0.05228464051445186</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3976506635251497</v>
+        <v>0.3976506635251495</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.3058156466825518</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.09820343823506876</v>
+        <v>0.1076278437727935</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1718742311912576</v>
+        <v>0.1722240542694287</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4930530910832148</v>
+        <v>0.4767450907713022</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.05084314412485281</v>
+        <v>-0.07790745459469271</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2112064505368756</v>
+        <v>-0.2046859215391019</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1055955539713182</v>
+        <v>0.1171809278945257</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04694558252553224</v>
+        <v>0.06474540237120796</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.01688528607405644</v>
+        <v>0.03069676120064234</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3156957440290205</v>
+        <v>0.3273295425024378</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.187794055894708</v>
+        <v>1.15335919734115</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.322058852292946</v>
+        <v>1.257505207945384</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.702759451583236</v>
+        <v>1.652201282772054</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5619372913026429</v>
+        <v>0.5620065500658697</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3528756611111236</v>
+        <v>0.3757150307963998</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7592411581233828</v>
+        <v>0.7580490292490861</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5988063538577341</v>
+        <v>0.6283555078941632</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5425021366585234</v>
+        <v>0.588007319542287</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.881681141681089</v>
+        <v>0.9326576297910699</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>12.22514734336363</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>24.38727164047201</v>
+        <v>24.387271640472</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>13.16904305597505</v>
@@ -1092,7 +1092,7 @@
         <v>9.516417396444071</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>18.0737069113374</v>
+        <v>18.07370691133739</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.85904104228349</v>
+        <v>8.391627591169994</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.3742155145545</v>
+        <v>3.757270740637149</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9.912486158816575</v>
+        <v>9.88621768781692</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.883972003425362</v>
+        <v>1.281352929578539</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.192905409032335</v>
+        <v>1.522600594442968</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>14.65907954201625</v>
+        <v>15.32059619933937</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>9.029698960521374</v>
+        <v>8.869295509934297</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>4.921496008972788</v>
+        <v>4.819900323292902</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>13.21488097945002</v>
+        <v>13.5635363608413</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.76500051179363</v>
+        <v>18.65237310306929</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.55226305492742</v>
+        <v>13.48425553959511</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20.10306420342219</v>
+        <v>20.36179938231943</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19.7363475402615</v>
+        <v>19.57270588941822</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>22.00646218791003</v>
+        <v>22.87764307365949</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>32.97498746178561</v>
+        <v>33.81189370213168</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>17.89121904709278</v>
+        <v>17.47610082614849</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>14.06357181226536</v>
+        <v>14.13486724771874</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>22.63466045092163</v>
+        <v>23.19623251510392</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.453462489053395</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9045872895194903</v>
+        <v>0.90458728951949</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.6747683356774856</v>
@@ -1197,7 +1197,7 @@
         <v>0.4876115220306256</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.9260783095816849</v>
+        <v>0.9260783095816846</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.4416725250223097</v>
+        <v>0.4301342079009961</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1706403407576668</v>
+        <v>0.1953220468994992</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5116723926889715</v>
+        <v>0.5138217343589531</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.05265926268879823</v>
+        <v>0.04028828383147846</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.0307397203847534</v>
+        <v>0.04427121853502084</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4361090780016892</v>
+        <v>0.4347432466598182</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4117395112196874</v>
+        <v>0.40870936676173</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2218030350629124</v>
+        <v>0.2182887241700593</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.5942897463920549</v>
+        <v>0.6176108019850333</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.21563235008349</v>
+        <v>1.232236369445834</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8982135008949096</v>
+        <v>0.909285296941774</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.33827453757726</v>
+        <v>1.399155594739248</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8734959316232273</v>
+        <v>0.9001267989988184</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.9546106775398672</v>
+        <v>0.9968125562004396</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.570388474513088</v>
+        <v>1.578626189184798</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.034812718315704</v>
+        <v>1.034789624291364</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8031968971339045</v>
+        <v>0.8065107981660001</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.321997823260216</v>
+        <v>1.333916633062823</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>1.195732809250016</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>12.12266688800495</v>
+        <v>12.12266688800496</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>7.507240690950121</v>
@@ -1306,7 +1306,7 @@
         <v>2.577405009855385</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>12.83366479141171</v>
+        <v>12.83366479141172</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.799950757237528</v>
+        <v>3.923239224699802</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04502258950351865</v>
+        <v>-0.01418792143892508</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8.983978773846694</v>
+        <v>9.137283584527355</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.023649675946646</v>
+        <v>2.692524864706114</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.766901716229098</v>
+        <v>-3.800909276006529</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.528743786914902</v>
+        <v>7.833379638489214</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.762010577486783</v>
+        <v>4.601725815935991</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.1946844009411168</v>
+        <v>-0.3602478960677321</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>10.15058352269055</v>
+        <v>9.765980981076765</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.78975721046691</v>
+        <v>11.11940090629496</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.953146812310898</v>
+        <v>7.019203132692247</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.31423482108212</v>
+        <v>16.74089895541478</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.80412362975437</v>
+        <v>11.98813002284722</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.522216067217492</v>
+        <v>5.552295850697671</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>16.01986646224937</v>
+        <v>16.54359187819989</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.23556008173491</v>
+        <v>10.18417454563166</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.305013458524003</v>
+        <v>5.247845739097998</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>15.73955003583912</v>
+        <v>15.75503057501584</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.04587186014142945</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4650614884243993</v>
+        <v>0.4650614884243995</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.3225465434764866</v>
@@ -1411,7 +1411,7 @@
         <v>0.1107375014724112</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.5513948984739212</v>
+        <v>0.5513948984739216</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1580388421543543</v>
+        <v>0.1700332049868799</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.001821064268733682</v>
+        <v>-0.0003019432318530989</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3898028567753078</v>
+        <v>0.3943439192968529</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1038386915117828</v>
+        <v>0.0876715601320205</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1292267202637638</v>
+        <v>-0.1326130679125466</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2629031249814847</v>
+        <v>0.2692659089320372</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1905520646240774</v>
+        <v>0.1860774495928465</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.007894903584514298</v>
+        <v>-0.01436781657006201</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4127583246561409</v>
+        <v>0.391079592790129</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5214991875500139</v>
+        <v>0.5532422241916265</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3349145617665758</v>
+        <v>0.343155658027097</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.81100577516679</v>
+        <v>0.8259367978628605</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5442447970024838</v>
+        <v>0.507083962690544</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2300426398508001</v>
+        <v>0.2421496355524076</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6801641281390682</v>
+        <v>0.7107142469976929</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4677483658904107</v>
+        <v>0.4606677985507563</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2390708876105665</v>
+        <v>0.242807446082734</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7201851724895745</v>
+        <v>0.7223797593174673</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.147225713484626</v>
+        <v>2.404176293308023</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.71377410994761</v>
+        <v>2.551688716082505</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7.700458879724296</v>
+        <v>7.796879559673743</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12.70962722002427</v>
+        <v>12.05366104927927</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>7.362086373132813</v>
+        <v>6.579623343913436</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>13.99769771627851</v>
+        <v>13.60253458570048</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>9.785465363631685</v>
+        <v>9.794126812829331</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>5.484896752822471</v>
+        <v>5.353764883063566</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>12.64286853569769</v>
+        <v>12.64786648405883</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>13.60284080977665</v>
+        <v>14.06912846845285</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>13.21514877196486</v>
+        <v>13.52857083253161</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>19.64516997226466</v>
+        <v>19.00821201337856</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>23.12947326916447</v>
+        <v>23.11705195781889</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>17.9527473834654</v>
+        <v>17.59780514400296</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>23.67494131051546</v>
+        <v>23.50427083968281</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>17.88132770815112</v>
+        <v>17.775137587542</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>13.22070815108231</v>
+        <v>13.37916168980968</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>20.26218776736759</v>
+        <v>20.24881218591795</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.4528371643041633</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.7664517924742343</v>
+        <v>0.766451792474234</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.6120132747273853</v>
@@ -1625,7 +1625,7 @@
         <v>0.3803838759207202</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.6729894834805737</v>
+        <v>0.6729894834805735</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.0972327472014336</v>
+        <v>0.1256360847734164</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1231894845168109</v>
+        <v>0.1119455508491772</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3724387716376253</v>
+        <v>0.3839450812724611</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3972123372245575</v>
+        <v>0.3643476576958728</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2217400498530541</v>
+        <v>0.2100926583669123</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4250616587138156</v>
+        <v>0.4173141984726194</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3588237385411873</v>
+        <v>0.3661142511941035</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2046554467401905</v>
+        <v>0.1980805739934042</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.4607615649976106</v>
+        <v>0.4592812226987845</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.9103583235190239</v>
+        <v>0.9889401167063995</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.9216499559366172</v>
+        <v>0.9195025376885081</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.38445738330329</v>
+        <v>1.345627093142354</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.8906802870441241</v>
+        <v>0.8882289371956038</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6790398256517894</v>
+        <v>0.673478760889504</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.911097794163548</v>
+        <v>0.9073335223633942</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7949633040845291</v>
+        <v>0.8111881607538362</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5937583146551866</v>
+        <v>0.59245857812458</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.9040414268661248</v>
+        <v>0.8992334878920475</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>6.834384263884019</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>6.060603676711085</v>
+        <v>6.06060367671109</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>10.02515454362329</v>
@@ -1734,7 +1734,7 @@
         <v>5.119068167164576</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>4.95323494915671</v>
+        <v>4.953234949156704</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.870270932288197</v>
+        <v>-1.55296431639022</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.888496720206111</v>
+        <v>-2.676836527871028</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.145939933822584</v>
+        <v>-0.6206483647272365</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8.108587209136124</v>
+        <v>7.780307452000211</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>2.863112613204528</v>
+        <v>3.33592021281013</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>2.37997387845657</v>
+        <v>2.138167922236295</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>6.525380577351959</v>
+        <v>6.542893361795017</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.385462900353797</v>
+        <v>1.630265330165291</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.9511469023938796</v>
+        <v>1.411657825427876</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>6.840564180695874</v>
+        <v>7.455634243226308</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.201015494196582</v>
+        <v>5.273363168487872</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>11.76817303133605</v>
+        <v>12.54507792972113</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>16.070870020464</v>
+        <v>15.87612225034563</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>11.06083462081863</v>
+        <v>11.49672539820572</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>10.38985030493886</v>
+        <v>10.20416031861287</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>13.20710321340545</v>
+        <v>13.44438024447329</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>8.590893169188906</v>
+        <v>8.620915416319443</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>8.757944827493148</v>
+        <v>8.761757867483935</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.1878429622691461</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1665756129324964</v>
+        <v>0.1665756129324965</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.3293026012076462</v>
@@ -1839,7 +1839,7 @@
         <v>0.1681492744946054</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.1627020457442656</v>
+        <v>0.1627020457442654</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3130319093936308</v>
+        <v>-0.2375888176745013</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.419239490876621</v>
+        <v>-0.3910757188600387</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2174898987310191</v>
+        <v>-0.1681297381621536</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.2102084627143686</v>
+        <v>0.2073564287989431</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.07062739585873602</v>
+        <v>0.08705151113118711</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.06123057753648056</v>
+        <v>0.05511515299602565</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2037621062267713</v>
+        <v>0.2050599432911594</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.04236213643028936</v>
+        <v>0.05293883466817057</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.02915038778613057</v>
+        <v>0.04329377235294673</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.856756366625652</v>
+        <v>2.007356631648866</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.368655451199201</v>
+        <v>1.37915346783289</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.920172602441462</v>
+        <v>2.834303891135165</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4546733764274739</v>
+        <v>0.4574998691010315</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3139110751626185</v>
+        <v>0.3364426865572693</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2943351564700085</v>
+        <v>0.2953571031476372</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4574505528400842</v>
+        <v>0.4720978501298523</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.2966184208006945</v>
+        <v>0.3002611539346956</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.3011549608573273</v>
+        <v>0.3068953521534704</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>5.615104560170833</v>
+        <v>5.636163487382671</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>3.569508570075623</v>
+        <v>3.547648919717981</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>10.077562789946</v>
+        <v>10.3130531149387</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>7.812852675525265</v>
+        <v>8.015737529032155</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>2.643658163949962</v>
+        <v>2.587034590483571</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>8.45520583281596</v>
+        <v>8.565159206269019</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>7.253422862594744</v>
+        <v>7.488862618327747</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>3.641038363096446</v>
+        <v>3.597882720307072</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>10.06249377145028</v>
+        <v>10.0770379749701</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>9.807920339146923</v>
+        <v>9.860142897426053</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7.370894222336524</v>
+        <v>7.4537040676921</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>14.25015549690246</v>
+        <v>14.4726241261776</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>12.61630345296142</v>
+        <v>12.26155047368452</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>7.279435635395864</v>
+        <v>7.151747932027281</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>12.67845715073443</v>
+        <v>12.79620117423162</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>10.39549915642358</v>
+        <v>10.65343431659393</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>6.737814350834466</v>
+        <v>6.775283496052474</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>12.95445219606239</v>
+        <v>12.98832189364156</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.3051392881132144</v>
+        <v>0.3096553439577022</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1950314380500777</v>
+        <v>0.1953138277499284</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.5469814670122449</v>
+        <v>0.5616759266124862</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.2513276987485006</v>
+        <v>0.2601752471430654</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.08634448609310948</v>
+        <v>0.08451755598458489</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2690051978248263</v>
+        <v>0.2773295037375446</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.292535577126065</v>
+        <v>0.3072250082650177</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.1454435714509406</v>
+        <v>0.1426961350327724</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.4116462859606379</v>
+        <v>0.4079624506935111</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.5934859586391601</v>
+        <v>0.6049985674716213</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.4566259123898561</v>
+        <v>0.4673306571478806</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.8626050230892901</v>
+        <v>0.8827874428012538</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.4399696909931092</v>
+        <v>0.4267352572466364</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.2560571249295522</v>
+        <v>0.2522652169676796</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.4411281212994425</v>
+        <v>0.4520436480219326</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.4531821658465806</v>
+        <v>0.4664096905476657</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.2923247147796403</v>
+        <v>0.2922710986812899</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.563942051862195</v>
+        <v>0.5626819987635582</v>
       </c>
     </row>
     <row r="46">
